--- a/会鸽业务测试.xlsx
+++ b/会鸽业务测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="车载" sheetId="1" r:id="rId1"/>
@@ -479,12 +479,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,23 +512,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -540,13 +586,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -556,14 +595,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,14 +609,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -600,24 +632,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,39 +648,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,13 +683,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +827,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,151 +857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,6 +897,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -915,21 +956,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,33 +977,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,168 +994,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1173,19 +1166,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1511,8 +1501,8 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1527,118 +1517,118 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" ht="37.5" customHeight="1" spans="1:7">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1654,7 +1644,7 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1767,12 +1757,12 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="2:5">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1974,12 +1964,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:2">
+    <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:2">
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
